--- a/Localization.xlsx
+++ b/Localization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\BrickController2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D551A7D1-42BA-4E16-8F45-E3869DA23A2E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD6EBE1-87D2-4695-8745-C2CEFD3B6485}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="12810" xr2:uid="{5807A82E-FA1F-4477-A668-54067E205773}"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="27870" windowHeight="12810" xr2:uid="{5807A82E-FA1F-4477-A668-54067E205773}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="306">
   <si>
     <t>About</t>
   </si>
@@ -36,9 +36,6 @@
     <t>AddControllerProfiles</t>
   </si>
   <si>
-    <t>Erstellen Sie Kontrollprofile</t>
-  </si>
-  <si>
     <t>AddCreations</t>
   </si>
   <si>
@@ -60,39 +57,21 @@
     <t>AreYouSureToDeleteControllerAction</t>
   </si>
   <si>
-    <t>Möchten Sie diese Aktion wirklich löschen?</t>
-  </si>
-  <si>
     <t>AreYouSureToDeleteControllerEvent</t>
   </si>
   <si>
-    <t>Sie müssen dieses Steuerungsereignis löschen:</t>
-  </si>
-  <si>
     <t>AreYouSureToDeleteCreation</t>
   </si>
   <si>
-    <t>Sind Sie sicher, dass Sie diese Erstellung löschen möchten:</t>
-  </si>
-  <si>
     <t>AreYouSureToDeleteDevice</t>
   </si>
   <si>
-    <t>Sie müssen dieses Tool löschen:</t>
-  </si>
-  <si>
     <t>AreYouSureToDeleteProfile</t>
   </si>
   <si>
-    <t>Sie möchten dieses Profil wirklich löschen:</t>
-  </si>
-  <si>
     <t>AreYouSureToDeleteThisControllerAcrion</t>
   </si>
   <si>
-    <t>Möchten Sie diese Steuerungsaktion wirklich löschen?</t>
-  </si>
-  <si>
     <t>AxisCharacteristic</t>
   </si>
   <si>
@@ -114,9 +93,6 @@
     <t>BluetoothDevicesWillNOTBeAvailable</t>
   </si>
   <si>
-    <t>Bluetooth-Geräte sind nicht verfügbar</t>
-  </si>
-  <si>
     <t>BluetoothIsTurnedOff</t>
   </si>
   <si>
@@ -126,9 +102,6 @@
     <t>ButtonType</t>
   </si>
   <si>
-    <t>Knopfart</t>
-  </si>
-  <si>
     <t>BuWizz2OutputLevel</t>
   </si>
   <si>
@@ -144,9 +117,6 @@
     <t>Cancel</t>
   </si>
   <si>
-    <t>Stornieren</t>
-  </si>
-  <si>
     <t>ChannelType</t>
   </si>
   <si>
@@ -168,27 +138,15 @@
     <t>Controller</t>
   </si>
   <si>
-    <t>Kontrolleur</t>
-  </si>
-  <si>
     <t>ControllerAction</t>
   </si>
   <si>
-    <t>Kontroller-Aktion</t>
-  </si>
-  <si>
     <t>ControllerProfile</t>
   </si>
   <si>
-    <t>Kontrolleur-Profil</t>
-  </si>
-  <si>
     <t>ControllerTester</t>
   </si>
   <si>
-    <t>Kontrolleur-Test</t>
-  </si>
-  <si>
     <t>Create</t>
   </si>
   <si>
@@ -198,9 +156,6 @@
     <t>Creating</t>
   </si>
   <si>
-    <t>Erstellen...</t>
-  </si>
-  <si>
     <t>Creation</t>
   </si>
   <si>
@@ -216,9 +171,6 @@
     <t>CreationNameCanNotBeEmpty</t>
   </si>
   <si>
-    <t>Kreationname darf nicht leer sein</t>
-  </si>
-  <si>
     <t>Creations</t>
   </si>
   <si>
@@ -228,9 +180,6 @@
     <t>DefaultProfile</t>
   </si>
   <si>
-    <t>Standard Profil</t>
-  </si>
-  <si>
     <t>Deleting</t>
   </si>
   <si>
@@ -246,15 +195,9 @@
     <t>DeviceName</t>
   </si>
   <si>
-    <t>Gerätename</t>
-  </si>
-  <si>
     <t>DeviceNameCanNotBeEmpty</t>
   </si>
   <si>
-    <t>Gerätename darf nicht leer sein</t>
-  </si>
-  <si>
     <t>Devices</t>
   </si>
   <si>
@@ -270,9 +213,6 @@
     <t>Disclaimer</t>
   </si>
   <si>
-    <t>Haftungsausschluss</t>
-  </si>
-  <si>
     <t>Disconnecting</t>
   </si>
   <si>
@@ -282,21 +222,12 @@
     <t>EnterCreationName</t>
   </si>
   <si>
-    <t>Geben Sie einen Namen für die Kreation ein</t>
-  </si>
-  <si>
     <t>EnterDeviceName</t>
   </si>
   <si>
-    <t>Geben Sie einen Gerätenamen ein</t>
-  </si>
-  <si>
     <t>EnterProfileName</t>
   </si>
   <si>
-    <t>Geben Sie einen Profilnamen ein</t>
-  </si>
-  <si>
     <t>Error</t>
   </si>
   <si>
@@ -327,9 +258,6 @@
     <t>Inv</t>
   </si>
   <si>
-    <t>Um</t>
-  </si>
-  <si>
     <t>Invert</t>
   </si>
   <si>
@@ -363,9 +291,6 @@
     <t>MissingDevices</t>
   </si>
   <si>
-    <t>Im Erstellungssetup fehlen Geräte</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -387,9 +312,6 @@
     <t>OutputLevel</t>
   </si>
   <si>
-    <t>Ausgabelautstärke</t>
-  </si>
-  <si>
     <t>PermissionRequest</t>
   </si>
   <si>
@@ -405,9 +327,6 @@
     <t>PressButtonOrMoveJoy</t>
   </si>
   <si>
-    <t>Drücken Sie eine Taste oder bewegen Sie einen Joystick auf dem Controller</t>
-  </si>
-  <si>
     <t>PressButtonsOrMoveJoys</t>
   </si>
   <si>
@@ -417,9 +336,6 @@
     <t>PressScanToDiscoverDevices</t>
   </si>
   <si>
-    <t>Klicken Sie auf Scannen, um Geräte zu finden</t>
-  </si>
-  <si>
     <t>ProfileName</t>
   </si>
   <si>
@@ -429,9 +345,6 @@
     <t>ProfileNameCanNotBeEmpty</t>
   </si>
   <si>
-    <t>Der Profilname darf nicht leer sein</t>
-  </si>
-  <si>
     <t>Red</t>
   </si>
   <si>
@@ -459,9 +372,6 @@
     <t>ScanForDevicesFirst</t>
   </si>
   <si>
-    <t>Suchen Sie nach Geräten, bevor Sie Controller-Aktionen hinzufügen!</t>
-  </si>
-  <si>
     <t>Scanning</t>
   </si>
   <si>
@@ -477,21 +387,12 @@
     <t>SelectDevice</t>
   </si>
   <si>
-    <t>Wählen Sie ein Gerät aus</t>
-  </si>
-  <si>
     <t>SelectDeviceBeforeSaving</t>
   </si>
   <si>
-    <t>Wählen Sie vor dem Speichern ein Gerät aus!</t>
-  </si>
-  <si>
     <t>ServoAngle</t>
   </si>
   <si>
-    <t>Servo-Winkel</t>
-  </si>
-  <si>
     <t>ShortChannel</t>
   </si>
   <si>
@@ -501,15 +402,9 @@
     <t>TurnOnBluetoothToConnect</t>
   </si>
   <si>
-    <t>Schalten Sie Bluetooth ein, um eine Verbindung zu einem Bluetooth-Gerät herzustellen</t>
-  </si>
-  <si>
     <t>TurnOnBluetoothToConnectBluetoothDevices</t>
   </si>
   <si>
-    <t>Schalten Sie Bluetooth ein, um eine Verbindung zu Bluetooth-Geräten herzustellen</t>
-  </si>
-  <si>
     <t>Version</t>
   </si>
   <si>
@@ -946,6 +841,108 @@
   </si>
   <si>
     <t>Turn bluetooth on to connect to bluetooth device(s).</t>
+  </si>
+  <si>
+    <t>Controllerprofile erstellen</t>
+  </si>
+  <si>
+    <t>Wollen Sie diese Aktion wirklich löschen?</t>
+  </si>
+  <si>
+    <t>Wollen Sie dieses Steuerungsereignis löschen:</t>
+  </si>
+  <si>
+    <t>Sind Sie sicher, dass Sie diese Erstellung löschen wollen:</t>
+  </si>
+  <si>
+    <t>Wollen Sie dieses Gerät löschen:</t>
+  </si>
+  <si>
+    <t>Wollen Sie dieses Profil wirklich löschen:</t>
+  </si>
+  <si>
+    <t>Wollen Sie diese Controllersaktion wirklich löschen?</t>
+  </si>
+  <si>
+    <t>Bluetooth-Geräte werden nicht verfügbar sein</t>
+  </si>
+  <si>
+    <t>Tastenart</t>
+  </si>
+  <si>
+    <t>Abbrechen</t>
+  </si>
+  <si>
+    <t>Controller-Aktion</t>
+  </si>
+  <si>
+    <t>Controller-Profil</t>
+  </si>
+  <si>
+    <t>Controller-Test</t>
+  </si>
+  <si>
+    <t>Erstellung...</t>
+  </si>
+  <si>
+    <t>Neme der Kreation darf nicht leer bleiben</t>
+  </si>
+  <si>
+    <t>Grundprofil</t>
+  </si>
+  <si>
+    <t>Name des Gerätes</t>
+  </si>
+  <si>
+    <t>Name des Gerätes darf nicht leer bleiben</t>
+  </si>
+  <si>
+    <t>Rechtserklärung</t>
+  </si>
+  <si>
+    <t>Einen Namen für die Kreation eingeben</t>
+  </si>
+  <si>
+    <t>Einen Gerätenamen eingeben</t>
+  </si>
+  <si>
+    <t>Einen Profilnamen eingeben</t>
+  </si>
+  <si>
+    <t>Fehler</t>
+  </si>
+  <si>
+    <t>Fehlende Geräte in der Einstellung der Kreation</t>
+  </si>
+  <si>
+    <t>Ausgabestufe</t>
+  </si>
+  <si>
+    <t>Eine Taste drücken oder einen Joystick auf dem Controller bewegen</t>
+  </si>
+  <si>
+    <t>Auf Scannen drücken, um Geräte zu finden</t>
+  </si>
+  <si>
+    <t>Der Profilname darf nicht leer bleiben</t>
+  </si>
+  <si>
+    <t>Vor Hinzufügung von Controller-Aktionen nach Geräten suchen</t>
+  </si>
+  <si>
+    <t>Ein Gerät auswählen</t>
+  </si>
+  <si>
+    <t>Vor dem Speichern ein Gerät auswählen</t>
+  </si>
+  <si>
+    <t>Servo-Drehen</t>
+  </si>
+  <si>
+    <t>Bluetooth einschalten, um eine Verbindung zu einem Bluetooth-Gerät herzustellen</t>
+  </si>
+  <si>
+    <t>Bluetooth einschalten, um eine Verbindung zu Bluetooth-Geräten herzustellen</t>
   </si>
 </sst>
 </file>
@@ -1302,7 +1299,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C856BF-430E-4D80-BAC9-CEE3C6AE5853}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C84"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1319,11 +1318,11 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1331,1161 +1330,1161 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
+        <v>215</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
+        <v>218</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>273</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
+        <v>219</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>274</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
+        <v>220</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
+        <v>221</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>276</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
+        <v>222</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
+        <v>218</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
+        <v>223</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
+        <v>224</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
+        <v>225</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
+        <v>226</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
+        <v>227</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
+        <v>228</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C19" t="s">
-        <v>37</v>
+        <v>229</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" t="s">
-        <v>39</v>
+        <v>29</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C21" t="s">
-        <v>41</v>
+        <v>230</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" t="s">
-        <v>43</v>
+        <v>32</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" t="s">
-        <v>47</v>
+        <v>36</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C25" t="s">
-        <v>49</v>
+        <v>231</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>282</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C26" t="s">
-        <v>51</v>
+        <v>232</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C27" t="s">
-        <v>53</v>
+        <v>233</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" t="s">
-        <v>55</v>
+        <v>40</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C29" t="s">
-        <v>57</v>
+        <v>234</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>285</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" t="s">
-        <v>59</v>
+        <v>43</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C31" t="s">
-        <v>61</v>
+        <v>235</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C32" t="s">
-        <v>63</v>
+        <v>236</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>286</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" t="s">
-        <v>65</v>
+        <v>48</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C34" t="s">
-        <v>67</v>
+        <v>237</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>287</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C35" t="s">
-        <v>69</v>
+        <v>238</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" t="s">
-        <v>71</v>
+        <v>53</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C37" t="s">
-        <v>73</v>
+        <v>239</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>288</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C38" t="s">
-        <v>75</v>
+        <v>240</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>289</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" t="s">
-        <v>77</v>
+        <v>57</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C40" t="s">
-        <v>79</v>
+        <v>241</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C41" t="s">
-        <v>81</v>
+        <v>61</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>290</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" t="s">
-        <v>83</v>
+        <v>62</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C43" t="s">
-        <v>85</v>
+        <v>242</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>291</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C44" t="s">
-        <v>87</v>
+        <v>243</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C45" t="s">
-        <v>89</v>
+        <v>244</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" t="s">
-        <v>90</v>
+        <v>67</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>294</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C47" t="s">
-        <v>92</v>
+        <v>245</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C48" t="s">
-        <v>94</v>
+        <v>246</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C49" t="s">
-        <v>96</v>
+        <v>247</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C50" t="s">
-        <v>98</v>
+        <v>248</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C51" t="s">
-        <v>100</v>
+        <v>76</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C52" t="s">
-        <v>102</v>
+        <v>77</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C53" t="s">
-        <v>104</v>
+        <v>249</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C54" t="s">
-        <v>106</v>
+        <v>250</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C55" t="s">
-        <v>108</v>
+        <v>251</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C56" t="s">
-        <v>110</v>
+        <v>85</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C57" t="s">
-        <v>112</v>
+        <v>252</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>295</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C58" t="s">
-        <v>114</v>
+        <v>88</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C59" t="s">
-        <v>116</v>
+        <v>253</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C60" t="s">
-        <v>118</v>
+        <v>92</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C61" t="s">
-        <v>120</v>
+        <v>254</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C62" t="s">
-        <v>122</v>
+        <v>255</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C63" t="s">
-        <v>124</v>
+        <v>97</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C64" t="s">
-        <v>126</v>
+        <v>256</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>297</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C65" t="s">
-        <v>128</v>
+        <v>257</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C66" t="s">
-        <v>130</v>
+        <v>258</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>298</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C67" t="s">
-        <v>132</v>
+        <v>259</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C68" t="s">
-        <v>134</v>
+        <v>260</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C69" t="s">
-        <v>136</v>
+        <v>106</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C70" t="s">
-        <v>138</v>
+        <v>108</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C71" t="s">
-        <v>140</v>
+        <v>261</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C72" t="s">
-        <v>142</v>
+        <v>262</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C73" t="s">
-        <v>144</v>
+        <v>263</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C74" t="s">
-        <v>146</v>
+        <v>264</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C75" t="s">
-        <v>148</v>
+        <v>265</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C76" t="s">
-        <v>150</v>
-      </c>
       <c r="D76" s="1" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C77" t="s">
-        <v>152</v>
-      </c>
       <c r="D77" s="1" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C78" t="s">
-        <v>154</v>
-      </c>
       <c r="D78" s="1" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C79" t="s">
-        <v>156</v>
+        <v>269</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C80" t="s">
-        <v>158</v>
+        <v>270</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>304</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C81" t="s">
-        <v>160</v>
+        <v>271</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>305</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C82" t="s">
-        <v>161</v>
+        <v>126</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C83" t="s">
-        <v>163</v>
+        <v>127</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C84" t="s">
-        <v>165</v>
+        <v>129</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
